--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C7CBE-5E63-E148-B250-CA69DD422EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11053158-2D0F-7C4A-AC12-22317C2A2679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="7840" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -203,12 +203,6 @@
     <t>Linear Regression Part 2</t>
   </si>
   <si>
-    <t>12:30 pm</t>
-  </si>
-  <si>
-    <t>1:30 pm</t>
-  </si>
-  <si>
     <t>7:00 pm</t>
   </si>
   <si>
@@ -222,6 +216,12 @@
   </si>
   <si>
     <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>1:00 pm</t>
+  </si>
+  <si>
+    <t>2:00 pm</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,10 +667,10 @@
         <v>45316</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -738,7 +738,7 @@
         <v>45343</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -870,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -900,7 +900,7 @@
         <v>45406</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1133,7 +1133,7 @@
         <v>45412</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11053158-2D0F-7C4A-AC12-22317C2A2679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E014F-8720-4449-B028-705264CF2F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="7840" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="5160" yWindow="8980" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>2:00 pm</t>
+  </si>
+  <si>
+    <t>R1U9AGihZzo</t>
+  </si>
+  <si>
+    <t>MSDS Orientation</t>
+  </si>
+  <si>
+    <t>lgIPrRQkEV0</t>
+  </si>
+  <si>
+    <t>00-Intro_to_Course</t>
   </si>
 </sst>
 </file>
@@ -619,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,41 +676,50 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45316</v>
+        <v>45315</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45322</v>
+        <v>45316</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45329</v>
+        <v>45322</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -707,17 +728,15 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45336</v>
+        <v>45329</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -726,52 +745,53 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
+      <c r="F5" s="10"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45343</v>
+        <v>45336</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45350</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45357</v>
+        <v>45350</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -780,16 +800,16 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45357</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -798,16 +818,16 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45371</v>
+        <v>45364</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -816,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -825,61 +845,61 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>45378</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>45385</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>45392</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45399</v>
+        <v>45392</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -888,43 +908,43 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45406</v>
+        <v>45399</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>45406</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45420</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -933,36 +953,54 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>45427</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E014F-8720-4449-B028-705264CF2F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF345A-AFF9-6A48-A770-B2615A2A56CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="8980" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>00-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>00-Intro_to_Data</t>
+  </si>
+  <si>
+    <t>0vL9mEjhEeE</t>
   </si>
 </sst>
 </file>
@@ -634,7 +640,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,6 +738,12 @@
       </c>
       <c r="E4" t="s">
         <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF345A-AFF9-6A48-A770-B2615A2A56CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7B8AC-FC69-494C-A7E8-7981A7590BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="8980" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -236,10 +236,16 @@
     <t>00-Intro_to_Course</t>
   </si>
   <si>
-    <t>00-Intro_to_Data</t>
-  </si>
-  <si>
     <t>0vL9mEjhEeE</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Data</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data1</t>
+  </si>
+  <si>
+    <t>CPx8N2laLz4</t>
   </si>
 </sst>
 </file>
@@ -640,7 +646,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,10 +746,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
         <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -762,7 +768,12 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7B8AC-FC69-494C-A7E8-7981A7590BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834BCB8-5FA1-3844-9843-8C4A044B6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="8980" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>CPx8N2laLz4</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data2</t>
+  </si>
+  <si>
+    <t>srb-Cm6fPLc</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,6 +797,12 @@
       </c>
       <c r="E6" t="s">
         <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
       </c>
       <c r="H6" s="7"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834BCB8-5FA1-3844-9843-8C4A044B6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99108D-15F6-F146-8578-8CBB4D094CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="8980" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1560" yWindow="8660" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>srb-Cm6fPLc</t>
+  </si>
+  <si>
+    <t>03-Probability</t>
+  </si>
+  <si>
+    <t>Y0jRo2m8lgc</t>
   </si>
 </sst>
 </file>
@@ -652,7 +658,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,16 +817,22 @@
         <v>45343</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -1038,6 +1050,9 @@
       <c r="H21" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" display="https://youtu.be/Y0jRo2m8lgc" xr:uid="{5EAAB3B5-0A20-2840-B3FF-7E3D0C1D0CC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99108D-15F6-F146-8578-8CBB4D094CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF418F81-3A95-994B-BE1E-2F5943492563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="8660" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Y0jRo2m8lgc</t>
+  </si>
+  <si>
+    <t>04-Distributions</t>
+  </si>
+  <si>
+    <t>S5oBBsbwrRo</t>
   </si>
 </sst>
 </file>
@@ -658,7 +664,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,6 +857,12 @@
       </c>
       <c r="E8" t="s">
         <v>29</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
       </c>
       <c r="H8" s="7"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF418F81-3A95-994B-BE1E-2F5943492563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB49153D-EAC2-A344-966C-AF290C374FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="600" yWindow="9820" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>S5oBBsbwrRo</t>
+  </si>
+  <si>
+    <t>05-Foundation_for_Inference</t>
+  </si>
+  <si>
+    <t>AlUk20QHu9w</t>
   </si>
 </sst>
 </file>
@@ -365,9 +371,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,7 +411,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -511,7 +517,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,7 +659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,7 +670,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,6 +888,12 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1075,7 +1087,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,7 +1183,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>45367</v>
+        <v>45364</v>
       </c>
       <c r="B7" s="2">
         <v>45368</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB49153D-EAC2-A344-966C-AF290C374FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ABE08B-509C-554C-84EC-0AD4ABF91769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="9820" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -670,7 +670,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ABE08B-509C-554C-84EC-0AD4ABF91769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEECEF6-F5E0-EB4F-87F8-5331A986D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="9820" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>AlUk20QHu9w</t>
+  </si>
+  <si>
+    <t>IHNE7vd8lIs</t>
+  </si>
+  <si>
+    <t>06-Inference_for_Categorical_Data</t>
   </si>
 </sst>
 </file>
@@ -670,7 +676,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,6 +917,12 @@
       </c>
       <c r="E10" t="s">
         <v>29</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
       </c>
       <c r="H10" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEECEF6-F5E0-EB4F-87F8-5331A986D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB0AB4D-74D0-2C45-87E1-A7735723EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="9820" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>06-Inference_for_Categorical_Data</t>
+  </si>
+  <si>
+    <t>07-Inference_for_Numerical_Data</t>
+  </si>
+  <si>
+    <t>LQLy-jTb34M</t>
   </si>
 </sst>
 </file>
@@ -676,7 +682,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,6 +947,12 @@
       </c>
       <c r="E11" t="s">
         <v>29</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
       </c>
       <c r="H11" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB0AB4D-74D0-2C45-87E1-A7735723EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCDE1B9-F627-6A45-A240-EAA9F3278CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="9820" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>LQLy-jTb34M</t>
+  </si>
+  <si>
+    <t>jY8wuiYRfWY</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,6 +977,12 @@
       </c>
       <c r="E12" t="s">
         <v>29</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
       </c>
       <c r="H12" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCDE1B9-F627-6A45-A240-EAA9F3278CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6A38B-56D7-9E4D-BC0E-ED278CB196F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="9820" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2820" yWindow="10300" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -206,9 +206,6 @@
     <t>7:00 pm</t>
   </si>
   <si>
-    <t>Maximum Likelihood Estimation and Logistic Regression</t>
-  </si>
-  <si>
     <t>Spring Break</t>
   </si>
   <si>
@@ -288,6 +285,15 @@
   </si>
   <si>
     <t>08-Linear_Regression</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood Estimation</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression2</t>
+  </si>
+  <si>
+    <t>W-Kb33YrJXk</t>
   </si>
 </sst>
 </file>
@@ -688,7 +694,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,13 +745,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -753,10 +759,10 @@
         <v>45316</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
@@ -765,10 +771,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
         <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -788,10 +794,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -811,10 +817,10 @@
         <v>29</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -835,10 +841,10 @@
         <v>29</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -859,10 +865,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -883,10 +889,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -907,10 +913,10 @@
         <v>29</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -931,10 +937,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
         <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -955,10 +961,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -979,10 +985,10 @@
         <v>29</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1002,6 +1008,12 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
+      <c r="F13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1015,7 +1027,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -1033,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -1045,7 +1057,7 @@
         <v>45406</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -1281,7 +1293,7 @@
         <v>45412</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6A38B-56D7-9E4D-BC0E-ED278CB196F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC88DC2-D481-484C-8073-3A0279C599AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="10300" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="22400" yWindow="11300" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>W-Kb33YrJXk</t>
+  </si>
+  <si>
+    <t>09-Logistic_Regression</t>
+  </si>
+  <si>
+    <t>u4Ll3ZVc-5M</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,6 +1037,12 @@
       </c>
       <c r="E14" t="s">
         <v>29</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
       </c>
       <c r="H14" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC88DC2-D481-484C-8073-3A0279C599AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7876D9-838E-C145-A05A-FEE61F1A4CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="11300" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="10320" yWindow="8700" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Spring Break - No Meetup</t>
   </si>
   <si>
-    <t>Logistic Regression</t>
-  </si>
-  <si>
     <t>1:00 pm</t>
   </si>
   <si>
@@ -300,6 +297,15 @@
   </si>
   <si>
     <t>u4Ll3ZVc-5M</t>
+  </si>
+  <si>
+    <t>Predictive Modeling</t>
+  </si>
+  <si>
+    <t>09-Multiple_Regression</t>
+  </si>
+  <si>
+    <t>dLKQ8d0zZbg</t>
   </si>
 </sst>
 </file>
@@ -751,13 +757,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -765,10 +771,10 @@
         <v>45316</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
@@ -777,10 +783,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -800,10 +806,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -823,10 +829,10 @@
         <v>29</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -847,10 +853,10 @@
         <v>29</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -871,10 +877,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -895,10 +901,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -919,10 +925,10 @@
         <v>29</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -943,10 +949,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
         <v>77</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -967,10 +973,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -991,10 +997,10 @@
         <v>29</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1015,10 +1021,10 @@
         <v>29</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -1033,16 +1039,16 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -1057,10 +1063,16 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -1084,7 +1096,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7876D9-838E-C145-A05A-FEE61F1A4CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466467AD-53FA-054C-936D-DDB2BDD20C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10320" yWindow="8700" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -305,7 +305,7 @@
     <t>09-Multiple_Regression</t>
   </si>
   <si>
-    <t>dLKQ8d0zZbg</t>
+    <t>Yo9ROlWgCp8</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466467AD-53FA-054C-936D-DDB2BDD20C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122819C-9402-974C-97EE-5B91FA8861B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10320" yWindow="8700" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Yo9ROlWgCp8</t>
+  </si>
+  <si>
+    <t>09-Predictive_Modeling</t>
+  </si>
+  <si>
+    <t>MQaKnQldQtw</t>
   </si>
 </sst>
 </file>
@@ -706,7 +712,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,6 +1106,12 @@
       </c>
       <c r="E17" t="s">
         <v>29</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
       </c>
       <c r="H17" s="8"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122819C-9402-974C-97EE-5B91FA8861B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAAB131-312F-E043-B61D-A4FF960BCF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10320" yWindow="8700" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>MQaKnQldQtw</t>
+  </si>
+  <si>
+    <t>10-Bayesian_Analysis</t>
+  </si>
+  <si>
+    <t>1FA7sQRLd2s</t>
   </si>
 </sst>
 </file>
@@ -712,7 +718,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,6 +1136,12 @@
       </c>
       <c r="E18" t="s">
         <v>29</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
       </c>
       <c r="H18" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2024 Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAAB131-312F-E043-B61D-A4FF960BCF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF39879-CD68-F443-8055-FF37F40E249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10320" yWindow="8700" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>1FA7sQRLd2s</t>
+  </si>
+  <si>
+    <t>kpO4PU7s0HM</t>
+  </si>
+  <si>
+    <t>11-Final_Meetup</t>
   </si>
 </sst>
 </file>
@@ -718,7 +724,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,6 +1166,12 @@
       </c>
       <c r="E19" t="s">
         <v>29</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
       </c>
       <c r="H19" s="6"/>
     </row>
